--- a/FileShare/results/BytecodeCounts.all.FOR KLAUS RECOVERED.xlsx
+++ b/FileShare/results/BytecodeCounts.all.FOR KLAUS RECOVERED.xlsx
@@ -10,7 +10,6 @@
     <sheet name="CBSE.all.zero_columns_removed" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -734,7 +733,7 @@
           <c:yMode val="edge"/>
           <c:x val="7.8201438055537184E-2"/>
           <c:y val="2.8252405949256338E-2"/>
-          <c:w val="0.80082511744855445"/>
+          <c:w val="0.80082511744855467"/>
           <c:h val="0.79822506561679785"/>
         </c:manualLayout>
       </c:layout>
@@ -743,6 +742,59 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$3:$R$3</c:f>
@@ -801,6 +853,59 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$4:$R$4</c:f>
@@ -859,6 +964,59 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$5:$R$5</c:f>
@@ -917,6 +1075,59 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$6:$R$6</c:f>
@@ -975,6 +1186,59 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$7:$R$7</c:f>
@@ -1033,6 +1297,59 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$8:$R$8</c:f>
@@ -1091,6 +1408,59 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$9:$R$9</c:f>
@@ -1149,6 +1519,59 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$10:$R$10</c:f>
@@ -1207,6 +1630,59 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$11:$R$11</c:f>
@@ -1265,6 +1741,59 @@
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$12:$R$12</c:f>
@@ -1323,6 +1852,59 @@
         <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$13:$R$13</c:f>
@@ -1381,6 +1963,59 @@
         <c:ser>
           <c:idx val="11"/>
           <c:order val="11"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$14:$R$14</c:f>
@@ -1439,6 +2074,59 @@
         <c:ser>
           <c:idx val="12"/>
           <c:order val="12"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$15:$R$15</c:f>
@@ -1497,6 +2185,59 @@
         <c:ser>
           <c:idx val="13"/>
           <c:order val="13"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$16:$R$16</c:f>
@@ -1555,6 +2296,59 @@
         <c:ser>
           <c:idx val="14"/>
           <c:order val="14"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$17:$R$17</c:f>
@@ -1613,6 +2407,59 @@
         <c:ser>
           <c:idx val="15"/>
           <c:order val="15"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$18:$R$18</c:f>
@@ -1671,6 +2518,59 @@
         <c:ser>
           <c:idx val="16"/>
           <c:order val="16"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$19:$R$19</c:f>
@@ -1729,6 +2629,59 @@
         <c:ser>
           <c:idx val="17"/>
           <c:order val="17"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$20:$R$20</c:f>
@@ -1787,6 +2740,59 @@
         <c:ser>
           <c:idx val="18"/>
           <c:order val="18"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$21:$R$21</c:f>
@@ -1845,6 +2851,59 @@
         <c:ser>
           <c:idx val="19"/>
           <c:order val="19"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CBSE.all.zero_columns_removed!$D$2:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ICONST_0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICONST_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ILOAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALOAD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AALOAD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BALOAD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ISTORE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ASTORE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IINC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>IFEQ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>IC_ICMPEQ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>IF_ICMPNE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IF_ICMPLT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GOTO</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ARRAYLENGTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>CBSE.all.zero_columns_removed!$D$22:$R$22</c:f>
@@ -1901,24 +2960,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104159488"/>
-        <c:axId val="104165376"/>
+        <c:axId val="89668224"/>
+        <c:axId val="89691264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104159488"/>
+        <c:axId val="89668224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104165376"/>
+        <c:crossAx val="89691264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104165376"/>
+        <c:axId val="89691264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +2985,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104159488"/>
+        <c:crossAx val="89668224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1939,7 +2998,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2101,24 +3160,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104188928"/>
-        <c:axId val="104190720"/>
+        <c:axId val="92393472"/>
+        <c:axId val="92395008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104188928"/>
+        <c:axId val="92393472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104190720"/>
+        <c:crossAx val="92395008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104190720"/>
+        <c:axId val="92395008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +3185,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104188928"/>
+        <c:crossAx val="92393472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2139,7 +3198,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2444,11 +3503,11 @@
         </c:ser>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="108291584"/>
-        <c:axId val="108293504"/>
+        <c:axId val="102928384"/>
+        <c:axId val="102930304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108291584"/>
+        <c:axId val="102928384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,14 +3536,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108293504"/>
+        <c:crossAx val="102930304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108293504"/>
+        <c:axId val="102930304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +3569,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108291584"/>
+        <c:crossAx val="102928384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2523,7 +3582,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
